--- a/web-platform_22_03_dev/static/media/admin/account/create_users.xlsx
+++ b/web-platform_22_03_dev/static/media/admin/account/create_users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_22_01_dev\static\media\admin\account\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_22_03_dev\static\media\admin\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C81F5B-4D19-4C1E-AFB4-2067DFAB056D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047957D5-6BAF-433F-ADF8-A276D673E506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Имя пользователя</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Фамилия</t>
   </si>
   <si>
-    <t>bogdandrienko@gmail.com</t>
-  </si>
-  <si>
     <t>Богдан</t>
   </si>
   <si>
@@ -85,18 +82,12 @@
     <t>Доступ к панели управления</t>
   </si>
   <si>
-    <t>It7qfRidW76q</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>User, Moderator</t>
-  </si>
-  <si>
     <t>Секретный вопрос</t>
   </si>
   <si>
@@ -116,6 +107,15 @@
   </si>
   <si>
     <t>Права суперпользователя</t>
+  </si>
+  <si>
+    <t>Временный пароль</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>temp_bogdan</t>
   </si>
 </sst>
 </file>
@@ -553,27 +553,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="15.7109375" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="15.7109375" style="5"/>
+    <col min="1" max="14" width="15.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="15.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -582,96 +582,100 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="6">
         <v>931777</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -682,13 +686,10 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
-      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{980C715F-8FED-43A3-8D8B-B2388CFF64F1}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>